--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Omg-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Omg-Lingo1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.084811666666667</v>
+        <v>1.10087</v>
       </c>
       <c r="H2">
-        <v>15.254435</v>
+        <v>3.30261</v>
       </c>
       <c r="I2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="J2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>4.277411371488888</v>
+        <v>0.9260665222666666</v>
       </c>
       <c r="R2">
-        <v>38.4967023434</v>
+        <v>8.334598700399999</v>
       </c>
       <c r="S2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="T2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>8.06705</v>
       </c>
       <c r="I3">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="J3">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,10 +632,10 @@
         <v>20.358330062</v>
       </c>
       <c r="S3">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="T3">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,13 +661,13 @@
         <v>2.180498333333333</v>
       </c>
       <c r="H4">
-        <v>6.541495</v>
+        <v>6.541494999999999</v>
       </c>
       <c r="I4">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461261</v>
       </c>
       <c r="J4">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461262</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>16.5083784418</v>
       </c>
       <c r="S4">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461261</v>
       </c>
       <c r="T4">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461262</v>
       </c>
     </row>
   </sheetData>
